--- a/3des/Chamada.xlsx
+++ b/3des/Chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A086FB6-9870-4231-B437-14B7B5A1BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119252E-FFFF-491D-B209-F8AFA0E2F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F357F3-2A6E-407A-8F65-2772E565909D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>ALLAN CESAR DA SILVA</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDBA890-186A-43F7-A1AD-90A443BC30E5}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,15 +484,21 @@
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1">
         <v>44606</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>44607</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,8 +508,14 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,8 +525,14 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,8 +542,14 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -535,8 +559,14 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -546,8 +576,14 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -557,8 +593,14 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -568,8 +610,14 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -579,8 +627,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -590,8 +644,14 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -601,8 +661,14 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -612,8 +678,14 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -623,8 +695,14 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -634,8 +712,14 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -645,8 +729,14 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -656,8 +746,14 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -667,8 +763,14 @@
       <c r="C17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -678,8 +780,14 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -689,8 +797,14 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -700,8 +814,14 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -711,8 +831,14 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -722,8 +848,14 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -733,8 +865,14 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -744,8 +882,14 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -755,8 +899,14 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -764,6 +914,12 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
         <v>26</v>
       </c>
     </row>

--- a/3des/Chamada.xlsx
+++ b/3des/Chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119252E-FFFF-491D-B209-F8AFA0E2F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA018F-69F5-4550-A130-068B07086B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F357F3-2A6E-407A-8F65-2772E565909D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
   <si>
     <t>ALLAN CESAR DA SILVA</t>
   </si>
@@ -471,34 +471,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDBA890-186A-43F7-A1AD-90A443BC30E5}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1">
+        <v>44603</v>
+      </c>
+      <c r="D1" s="1">
         <v>44606</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44607</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44608</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,8 +520,14 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -523,16 +535,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,13 +561,19 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,13 +584,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -582,8 +612,14 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,8 +635,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,8 +658,14 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -631,10 +679,16 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -650,8 +704,14 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -667,8 +727,14 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -684,8 +750,14 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -701,8 +773,14 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -718,8 +796,14 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -735,8 +819,14 @@
       <c r="E15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -752,8 +842,14 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -769,8 +865,14 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -786,8 +888,14 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -803,8 +911,14 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -820,8 +934,14 @@
       <c r="E20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -837,8 +957,14 @@
       <c r="E21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -854,8 +980,14 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -871,8 +1003,14 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -886,10 +1024,16 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -905,8 +1049,14 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -920,6 +1070,12 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
         <v>26</v>
       </c>
     </row>

--- a/3des/Chamada.xlsx
+++ b/3des/Chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA018F-69F5-4550-A130-068B07086B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAB62E-DABA-463E-9883-48F480E2614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F357F3-2A6E-407A-8F65-2772E565909D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
   <si>
     <t>ALLAN CESAR DA SILVA</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>ALUNO</t>
+  </si>
+  <si>
+    <t>P/3</t>
   </si>
 </sst>
 </file>
@@ -471,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDBA890-186A-43F7-A1AD-90A443BC30E5}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -503,8 +506,11 @@
       <c r="G1" s="1">
         <v>44609</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,8 +532,11 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,8 +558,11 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,8 +584,11 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,8 +610,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,8 +636,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -641,8 +662,11 @@
       <c r="G7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -664,8 +688,11 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -687,8 +714,11 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -710,8 +740,11 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -733,8 +766,11 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -756,8 +792,11 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -779,8 +818,11 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -802,8 +844,11 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -825,8 +870,11 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -848,8 +896,11 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -871,8 +922,11 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -894,8 +948,11 @@
       <c r="G18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -917,8 +974,11 @@
       <c r="G19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -940,8 +1000,11 @@
       <c r="G20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -963,8 +1026,11 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -986,8 +1052,11 @@
       <c r="G22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1009,8 +1078,11 @@
       <c r="G23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1032,8 +1104,11 @@
       <c r="G24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1055,8 +1130,11 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1076,6 +1154,9 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
         <v>26</v>
       </c>
     </row>

--- a/3des/Chamada.xlsx
+++ b/3des/Chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAB62E-DABA-463E-9883-48F480E2614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691E8301-4C0F-4DC3-95F1-B4F918B784F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F357F3-2A6E-407A-8F65-2772E565909D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="29">
   <si>
     <t>ALLAN CESAR DA SILVA</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDBA890-186A-43F7-A1AD-90A443BC30E5}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
     <col min="3" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -509,8 +509,17 @@
       <c r="I1" s="1">
         <v>44623</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>44624</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44627</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,8 +544,14 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,8 +576,14 @@
       <c r="I3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,8 +608,14 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,8 +640,14 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -639,8 +672,14 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -665,8 +704,14 @@
       <c r="I7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -691,8 +736,14 @@
       <c r="I8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -717,8 +768,11 @@
       <c r="I9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -743,8 +797,14 @@
       <c r="I10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -769,8 +829,14 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -795,8 +861,14 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -821,8 +893,14 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -847,8 +925,14 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -873,8 +957,14 @@
       <c r="I15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -899,8 +989,14 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -925,8 +1021,14 @@
       <c r="I17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -951,8 +1053,11 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -977,8 +1082,11 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1003,8 +1111,14 @@
       <c r="I20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1029,8 +1143,14 @@
       <c r="I21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1055,8 +1175,14 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1081,8 +1207,14 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1107,8 +1239,11 @@
       <c r="I24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1133,8 +1268,14 @@
       <c r="I25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1157,6 +1298,12 @@
         <v>26</v>
       </c>
       <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
         <v>26</v>
       </c>
     </row>
